--- a/DioDocs/ExcelTemplateReport/Templates/SimpleInvoiceJP_固定明細_複数シート_数式維持_備考フォーム追加.xlsx
+++ b/DioDocs/ExcelTemplateReport/Templates/SimpleInvoiceJP_固定明細_複数シート_数式維持_備考フォーム追加.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinori\source\github\Self-Learning\DioDocs\ExcelTemplateReport\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD9995D-45B6-4485-B0CF-E829A38EE35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3166FB7-2D7A-440C-AB8B-3804693C667B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22560" yWindow="4932" windowWidth="19752" windowHeight="18984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9744" yWindow="5976" windowWidth="19752" windowHeight="18984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="{{ds.customer.companyname}} " sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>伝票番号</t>
     <rPh sb="0" eb="2">
@@ -136,19 +136,6 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>ガク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>請     求     書</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>モトム</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ショ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -264,15 +251,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>{{ds.customer.detail.unit}}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>{{ds.customer.detail.price}}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>{{==E18*F18}}</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -290,6 +269,22 @@
   <si>
     <t xml:space="preserve">{{(form={"type": "textbox", "name": "bikou", "multiline":true, "font":{"size":8, "name":"IPA P明朝"}})}}
 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{{==BC_EAN8(A18)}}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{{ds.customer.detail.unit(C=A18)}}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>{{==F18*G18}}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>請     求     書</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -630,7 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -652,26 +647,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="8" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -691,33 +714,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -727,29 +723,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1093,566 +1083,608 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="10.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="9.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3">
+      <c r="J1" s="3">
         <f ca="1">TODAY()</f>
-        <v>44371</v>
-      </c>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H2" s="5" t="s">
+        <v>44372</v>
+      </c>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="6" t="str">
+        <f ca="1">TEXT(TODAY(),"DD")&amp;"-"&amp;TEXT(NOW(),"HMM")</f>
+        <v>25-1548</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="24.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="6" t="str">
-        <f ca="1">TEXT(TODAY(),"DD")&amp;"-"&amp;TEXT(NOW(),"HMM")</f>
-        <v>24-1704</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" ht="25.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="48" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G12" s="9"/>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G13" s="9"/>
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="9"/>
+      <c r="H14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="17" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="49"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="9"/>
-      <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="9"/>
-      <c r="G13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F14" s="9"/>
-      <c r="G14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="51"/>
-    </row>
-    <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="38"/>
-    </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-    </row>
-    <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38"/>
-    </row>
-    <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="40"/>
-    </row>
-    <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="38"/>
-    </row>
-    <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="40"/>
-    </row>
-    <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="38"/>
-    </row>
-    <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="40"/>
-    </row>
-    <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="38"/>
-    </row>
-    <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="40"/>
-    </row>
-    <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="38"/>
-    </row>
-    <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="40"/>
-    </row>
-    <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="38"/>
-    </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="40"/>
-    </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="38"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="40"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="38"/>
-    </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="40"/>
-    </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="38"/>
-    </row>
-    <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="40"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="27" t="s">
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+    </row>
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
+    </row>
+    <row r="28" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="24"/>
+    </row>
+    <row r="29" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="24"/>
+    </row>
+    <row r="31" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
+    </row>
+    <row r="32" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="24"/>
+    </row>
+    <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="26"/>
+    </row>
+    <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="24"/>
+    </row>
+    <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="26"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C38" s="39" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10" t="s">
+      <c r="E38" s="16"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="11"/>
+      <c r="I38" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I38" s="11"/>
-    </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="C39" s="28"/>
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="C39" s="40"/>
       <c r="D39" s="12"/>
-      <c r="E39" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="14" t="s">
+      <c r="E39" s="17"/>
+      <c r="F39" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="12"/>
+      <c r="J39" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="29"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="47"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="17"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="20"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="20"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="26"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="33"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="33"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="35"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="33"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="35"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="36"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="76">
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A17:E17"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="D4:G5"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:J25"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:E23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:I23"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:J29"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E28:E29"/>
     <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:I29"/>
-    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I32:J33"/>
+    <mergeCell ref="A33:D33"/>
     <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:I31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:J31"/>
     <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:E33"/>
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="A43:J47"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:J37"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E36:E37"/>
     <mergeCell ref="F34:F35"/>
     <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:I35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:J35"/>
+    <mergeCell ref="A42:J42"/>
     <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A43:I47"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A34:D34"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
